--- a/biology/Zoologie/Adoretus_sinicus/Adoretus_sinicus.xlsx
+++ b/biology/Zoologie/Adoretus_sinicus/Adoretus_sinicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adoretus sinicus est une espèce d'insectes coléoptères de la famille des Scarabaeidae, originaire d'Asie de l'Est.
-Adoretus sinicus est un insecte phytophage dont les adultes se nourrissent des feuilles de nombreuses espèces de plantes. En cas d'attaque importante, les feuilles peuvent être « squelettisées », réduites à leurs nervures[2]. Les larves vivent dans le sol et dans la végétation en décomposition et la litière de feuilles. La gamme des plantes-hôtes comprendrait plus de 250 espèces[3]. L'espèce s'est répandue dans la plus grande partie de l'Asie et en Océanie.
+Adoretus sinicus est un insecte phytophage dont les adultes se nourrissent des feuilles de nombreuses espèces de plantes. En cas d'attaque importante, les feuilles peuvent être « squelettisées », réduites à leurs nervures. Les larves vivent dans le sol et dans la végétation en décomposition et la litière de feuilles. La gamme des plantes-hôtes comprendrait plus de 250 espèces. L'espèce s'est répandue dans la plus grande partie de l'Asie et en Océanie.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Principales plantes attaquées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Plantwise Knowledge Bank[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Plantwise Knowledge Bank :
 Acalypha,
 Alocasia,
 Cajanus cajan (pois d'Angole),
